--- a/SEW_MTBF_optimization_1000h/Code/results.xlsx
+++ b/SEW_MTBF_optimization_1000h/Code/results.xlsx
@@ -1,29 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\SEW_MTBF_optimization_1000h\Code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB2BF1-762A-4EC1-B144-8077C541CC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="13284" yWindow="0" windowWidth="9852" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+  <si>
+    <t>Number of repairmen</t>
+  </si>
+  <si>
+    <t>Optimal group</t>
+  </si>
+  <si>
+    <t>Optimal execution time [hours]</t>
+  </si>
+  <si>
+    <t>Maintenance duration [hours]</t>
+  </si>
+  <si>
+    <t>[1, 6]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [8, 15]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[13, 16]</t>
+  </si>
+  <si>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>[174.786]</t>
+  </si>
+  <si>
+    <t>[346.596]</t>
+  </si>
+  <si>
+    <t>[519.895]</t>
+  </si>
+  <si>
+    <t>[693.193]</t>
+  </si>
+  <si>
+    <t>[866.491]</t>
+  </si>
+  <si>
+    <t>[359.09]</t>
+  </si>
+  <si>
+    <t>[543.054]</t>
+  </si>
+  <si>
+    <t>[718.179]</t>
+  </si>
+  <si>
+    <t>[897.724]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [11]</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>[208.829]</t>
+  </si>
+  <si>
+    <t>[417.658]</t>
+  </si>
+  <si>
+    <t>[626.777]</t>
+  </si>
+  <si>
+    <t>[835.316]</t>
+  </si>
+  <si>
+    <t>[732.33]</t>
+  </si>
+  <si>
+    <t>[2, 7]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[8, 15]</t>
+  </si>
+  <si>
+    <t>[9, 17]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [349.571]</t>
+  </si>
+  <si>
+    <t>[724.612]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [208.829]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [417.658]</t>
+  </si>
+  <si>
+    <t>Cost saving [euros]</t>
+  </si>
+  <si>
+    <t>Unavailability period</t>
+  </si>
+  <si>
+    <t>Unavailability period  [hours]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +214,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +572,550 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1085.145</v>
+      </c>
+      <c r="C2" s="4">
+        <v>30.995999999999999</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.9569999999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1085.145</v>
+      </c>
+      <c r="M2" s="1">
+        <v>30.995999999999999</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1496.7</v>
+      </c>
+      <c r="M3" s="1">
+        <v>25.472999999999999</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1496.7</v>
+      </c>
+      <c r="M4" s="1">
+        <v>25.472999999999999</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1496.7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>25.472999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1496.7</v>
+      </c>
+      <c r="M6" s="1">
+        <v>25.472999999999999</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1496.7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>25.472999999999999</v>
+      </c>
+      <c r="N7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.774</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1496.7</v>
+      </c>
+      <c r="M8" s="1">
+        <v>25.472999999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1496.7</v>
+      </c>
+      <c r="C20" s="4">
+        <v>25.472999999999999</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="C20:C31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SEW_MTBF_optimization_1000h/Code/results.xlsx
+++ b/SEW_MTBF_optimization_1000h/Code/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\SEW_MTBF_optimization_1000h\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB2BF1-762A-4EC1-B144-8077C541CC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C2953A-5784-4AE7-9B1F-D2E630263B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13284" yWindow="0" windowWidth="9852" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,37 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={870C909F-6346-4915-B51F-DEF4CB7E60F6}</author>
+    <author>tc={424C3140-C00C-4B80-8D48-CBC6F9E33841}</author>
+  </authors>
+  <commentList>
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{870C909F-6346-4915-B51F-DEF4CB7E60F6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    C_s = 500
+C_d = 100</t>
+      </text>
+    </comment>
+    <comment ref="A68" authorId="1" shapeId="0" xr:uid="{424C3140-C00C-4B80-8D48-CBC6F9E33841}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    C_s = 5000
+C_d = 50</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
   <si>
     <t>Number of repairmen</t>
   </si>
@@ -168,13 +197,40 @@
   </si>
   <si>
     <t>Unavailability period  [hours]</t>
+  </si>
+  <si>
+    <t>[1, 6, 11]</t>
+  </si>
+  <si>
+    <t>[3, 8, 15]</t>
+  </si>
+  <si>
+    <t>[5, 10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [12]</t>
+  </si>
+  <si>
+    <t>[181.266]</t>
+  </si>
+  <si>
+    <t>[349.571]</t>
+  </si>
+  <si>
+    <t>[528.972]</t>
+  </si>
+  <si>
+    <t>[873.928]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [724.612]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +252,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,6 +376,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Huu Truong Le" id="{2FE77B57-50CF-457A-B833-7D06688C228B}" userId="S::p05613@univ-lorraine.fr::6b4c9910-168d-4545-ac84-70405333306d" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,27 +645,45 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A34" dT="2024-09-12T08:33:26.76" personId="{2FE77B57-50CF-457A-B833-7D06688C228B}" id="{870C909F-6346-4915-B51F-DEF4CB7E60F6}">
+    <text>C_s = 500
+C_d = 100</text>
+  </threadedComment>
+  <threadedComment ref="A68" dT="2024-09-12T09:04:04.90" personId="{2FE77B57-50CF-457A-B833-7D06688C228B}" id="{424C3140-C00C-4B80-8D48-CBC6F9E33841}">
+    <text>C_s = 5000
+C_d = 50</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
     <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="5" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="20.88671875" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" customWidth="1"/>
     <col min="13" max="13" width="19.5546875" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
+    <col min="14" max="14" width="21.88671875" customWidth="1"/>
+    <col min="18" max="18" width="24.109375" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" customWidth="1"/>
+    <col min="20" max="20" width="28.21875" customWidth="1"/>
+    <col min="21" max="21" width="18.77734375" customWidth="1"/>
+    <col min="22" max="22" width="29" customWidth="1"/>
+    <col min="23" max="23" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1106,8 +1198,416 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4">
+        <v>26638.496999999999</v>
+      </c>
+      <c r="C44" s="4">
+        <v>30.995999999999999</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5.6829999999999998</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3">
+        <v>26638.496999999999</v>
+      </c>
+      <c r="M44" s="1">
+        <v>30.995999999999999</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4.9569999999999999</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2</v>
+      </c>
+      <c r="K45" s="3">
+        <v>27061.692999999999</v>
+      </c>
+      <c r="M45" s="1">
+        <v>22.532</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6.8819999999999997</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
+        <v>27061.692999999999</v>
+      </c>
+      <c r="M46" s="1">
+        <v>22.532</v>
+      </c>
+      <c r="N46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="J47" s="1">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
+        <v>27061.692999999999</v>
+      </c>
+      <c r="M47" s="1">
+        <v>22.532</v>
+      </c>
+      <c r="N47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4.9569999999999999</v>
+      </c>
+      <c r="J48" s="1">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
+        <v>27061.692999999999</v>
+      </c>
+      <c r="M48" s="1">
+        <v>22.532</v>
+      </c>
+      <c r="N48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4.7389999999999999</v>
+      </c>
+      <c r="J49" s="1">
+        <v>6</v>
+      </c>
+      <c r="K49" s="3">
+        <v>27061.692999999999</v>
+      </c>
+      <c r="M49" s="1">
+        <v>22.532</v>
+      </c>
+      <c r="N49" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J50" s="1">
+        <v>7</v>
+      </c>
+      <c r="K50" s="3">
+        <v>27061.692999999999</v>
+      </c>
+      <c r="M50" s="1">
+        <v>22.532</v>
+      </c>
+      <c r="N50" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4">
+        <v>27061.692999999999</v>
+      </c>
+      <c r="C57" s="4">
+        <v>22.532</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="C57:C65"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="B2:B15"/>
     <mergeCell ref="A20:A31"/>
@@ -1117,5 +1617,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SEW_MTBF_optimization_1000h/Code/results.xlsx
+++ b/SEW_MTBF_optimization_1000h/Code/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\SEW_MTBF_optimization_1000h\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\SEW_MTBF_optimization_1000h\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C2953A-5784-4AE7-9B1F-D2E630263B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872C49C9-1BE3-42B7-80CB-1052D8852A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,18 +252,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -662,31 +650,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" customWidth="1"/>
-    <col min="18" max="18" width="24.109375" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" customWidth="1"/>
-    <col min="20" max="20" width="28.21875" customWidth="1"/>
-    <col min="21" max="21" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" customWidth="1"/>
     <col min="22" max="22" width="29" customWidth="1"/>
-    <col min="23" max="23" width="31.77734375" customWidth="1"/>
+    <col min="23" max="23" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -718,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -750,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -776,7 +764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -802,7 +790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -828,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -854,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -880,7 +868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -906,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -920,7 +908,7 @@
         <v>3.8490000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -934,7 +922,7 @@
         <v>3.8490000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -948,7 +936,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -962,7 +950,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -976,7 +964,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -990,7 +978,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1004,7 +992,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2</v>
       </c>
@@ -1044,7 +1032,7 @@
         <v>3.8490000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5"/>
@@ -1058,7 +1046,7 @@
         <v>3.8490000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
@@ -1072,7 +1060,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
@@ -1086,7 +1074,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
@@ -1100,7 +1088,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
@@ -1114,7 +1102,7 @@
         <v>3.8490000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
@@ -1128,7 +1116,7 @@
         <v>3.8490000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
@@ -1142,7 +1130,7 @@
         <v>3.8490000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
@@ -1156,7 +1144,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
@@ -1170,7 +1158,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
@@ -1184,7 +1172,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
@@ -1198,8 +1186,8 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -1263,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1289,7 +1277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1315,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1341,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1367,7 +1355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1393,7 +1381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1419,7 +1407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1433,7 +1421,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1447,7 +1435,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>2</v>
       </c>
@@ -1487,7 +1475,7 @@
         <v>3.8490000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1501,7 +1489,7 @@
         <v>3.8490000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1515,7 +1503,7 @@
         <v>3.8490000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1529,7 +1517,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1543,7 +1531,7 @@
         <v>3.8490000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1557,7 +1545,7 @@
         <v>3.8490000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1571,7 +1559,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1585,7 +1573,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1599,21 +1587,21 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="C20:C31"/>
     <mergeCell ref="A44:A52"/>
     <mergeCell ref="B44:B52"/>
     <mergeCell ref="C44:C52"/>
     <mergeCell ref="A57:A65"/>
     <mergeCell ref="B57:B65"/>
     <mergeCell ref="C57:C65"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="C2:C15"/>
-    <mergeCell ref="C20:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
